--- a/content/drafts/entitats/Col.lectius_professionals_Gencat.xlsx
+++ b/content/drafts/entitats/Col.lectius_professionals_Gencat.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\110.Col_lectius_professionals_Gencat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF2C29-DA33-4165-A9B5-5947162BFFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D518C9D-17FF-4C6A-B8A3-E6E746B93DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Col·lectius professionals Gen" sheetId="1" r:id="rId1"/>
+    <sheet name="Col·lectius professionals GenCa" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Nom entitat: </t>
   </si>
@@ -56,54 +56,21 @@
     <t>Descripció</t>
   </si>
   <si>
-    <t>Personal d’administració de justícia</t>
-  </si>
-  <si>
-    <t>Personal que presta serveis auxiliars i instrumentals en l’àmbit dels diferents òrgans judicials radicats a Catalunya. Inclou tant el personal de cossos generals, la tasca dels quals consisteix essencialment en feines de contingut processal i la realització de funcions administratives vinculades a les anteriors, –cossos de gestió i de tramitació processal i administrativa i cos d’auxili judicial–, com el personal del cos especial de metges forenses.</t>
-  </si>
-  <si>
-    <t>Personal d’administració i serveis</t>
-  </si>
-  <si>
-    <t>Col·lectiu professional heterogeni, conformat principalment pel personal que efectua tasques burocràtiques de caràcter tècnic i de caràcter administratiu, juntament amb el personal de serveis prestacionals que no pertanyen a una altra classe de les establertes en aquest glossari –educadors socials, educadors infantils, personal de residències de gent gran, etc.–, professionals subjectes a règim laboral, subalterns, veterinaris i personal de centres penitenciaris que no desenvolupa funcions de vigilància i control de presos. Inclou també el personal d’administració i serveis dels centres de salut públics, subjecte a règims diversos com són l’estatutari sanitari, el funcionarial general i el laboral comú.</t>
-  </si>
-  <si>
     <t>Agents rurals</t>
   </si>
   <si>
-    <t>Professionals del cos que té encomanada la vigilància, el control, la protecció, la prevenció integral i la col·laboració en la gestió del medi ambient. Els membres d’aquest cos tenen la condició d’agents de l’autoritat i exerceixen funcions de policia administrativa especial i judicial, en els termes que estableix l’Estatut d’autonomia de Catalunya.</t>
-  </si>
-  <si>
     <t>Personal dels cossos de seguretat</t>
   </si>
   <si>
-    <t>Col·lectiu professional format pel personal pertanyent al cos de Mossos d’Esquadra, en totes les seves escales i categories, com a policia ordinària i integral que exerceix les funcions que l’ordenament jurídic atribueix a les forces i als cossos de seguretat, i pel personal facultatiu i tècnic que dóna cobertura i suport a la funció policial. En el cas de l’Administració local, inclou el col·lectiu de vigilants i policia local.</t>
-  </si>
-  <si>
     <t>Personal docent</t>
   </si>
   <si>
-    <t>Professionals de l’ensenyament que presten serveis en centres educatius públics en els trams d’educació obligatòria, de batxillerat i de formació professional, o en entorns especials, com centres penitenciaris, escoles oficials d’idiomes o centres d’adults.</t>
-  </si>
-  <si>
-    <t>Personal d’extinció d’incendis</t>
-  </si>
-  <si>
-    <t>Professionals que centren la seva activitat en l’execució de serveis de prevenció i extinció d'incendis i de salvaments dins del cos de bombers de la Generalitat de Catalunya o com a personal tècnic especialitzat, destinat a acomplir tasques de suport i ajut al personal operatiu. En el cas de l’Administració local, inclou el col·lectiu de bombers que en depenen.</t>
-  </si>
-  <si>
     <t>Personal sanitari</t>
   </si>
   <si>
-    <t>Col·lectiu integrat pel personal sanitari –mèdic, d’infermeria, tècnic especialista en anàlisis clíniques, radiodiagnòstic, etc., així com els sanitaris locals– que presta serveis en centres de salut públics.</t>
-  </si>
-  <si>
     <t>Personal de serveis penitenciaris</t>
   </si>
   <si>
-    <t>Professionals que fan tasques de custòdia, control i vigilància de persones i béns, i que possibiliten el funcionament i l’ordre dels centres i institucions penitenciàries en totes les seves modalitats.</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -138,6 +105,48 @@
   </si>
   <si>
     <t>No es coneix el col·lectiu professional.</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Personal investigador</t>
+  </si>
+  <si>
+    <t>Personal que realitza tasques d'investigació i recerca que contribueixen a la construcció del coneixement científic</t>
+  </si>
+  <si>
+    <t>Personal d'administració de justícia</t>
+  </si>
+  <si>
+    <t>Personal que presta serveis auxiliars i instrumentals en l'àmbit dels diferents òrgans judicials radicats a Catalunya. Inclou tant el personal de cossos generals, la tasca dels quals consisteix essencialment en feines de contingut processal i la realització de funcions administratives vinculades a les anteriors, –cossos de gestió i de tramitació processal i administrativa i cos d'auxili judicial–, com el personal del cos especial de metges forenses.</t>
+  </si>
+  <si>
+    <t>Personal d'administració i serveis</t>
+  </si>
+  <si>
+    <t>Col·lectiu professional heterogeni, conformat principalment pel personal que efectua tasques burocràtiques de caràcter tècnic i de caràcter administratiu, juntament amb el personal de serveis prestacionals que no pertanyen a una altra classe de les establertes en aquest glossari –educadors socials, educadors infantils, personal de residències de gent gran, etc.–, professionals subjectes a règim laboral, subalterns, veterinaris i personal de centres penitenciaris que no desenvolupa funcions de vigilància i control de presos. Inclou també el personal d'administració i serveis dels centres de salut públics, subjecte a règims diversos com són l'estatutari sanitari, el funcionarial general i el laboral comú.</t>
+  </si>
+  <si>
+    <t>Professionals del cos que té encomanada la vigilància, el control, la protecció, la prevenció integral i la col·laboració en la gestió del medi ambient. Els membres d'aquest cos tenen la condició d'agents de l'autoritat i exerceixen funcions de policia administrativa especial i judicial, en els termes que estableix l'Estatut d'autonomia de Catalunya.</t>
+  </si>
+  <si>
+    <t>Col·lectiu professional format pel personal pertanyent al cos de Mossos d'Esquadra, en totes les seves escales i categories, com a policia ordinària i integral que exerceix les funcions que l'ordenament jurídic atribueix a les forces i als cossos de seguretat, i pel personal facultatiu i tècnic que dóna cobertura i suport a la funció policial. En el cas de l'Administració local, inclou el col·lectiu de vigilants i policia local.</t>
+  </si>
+  <si>
+    <t>Professionals de l'ensenyament que presten serveis en centres educatius públics en els trams d'educació obligatòria, de batxillerat i de formació professional, o en entorns especials, com centres penitenciaris, escoles oficials d'idiomes o centres d'adults.</t>
+  </si>
+  <si>
+    <t>Personal d'extinció d'incendis</t>
+  </si>
+  <si>
+    <t>Professionals que centren la seva activitat en l'execució de serveis de prevenció i extinció d'incendis i de salvaments dins del cos de bombers de la Generalitat de Catalunya o com a personal tècnic especialitzat, destinat a acomplir tasques de suport i ajut al personal operatiu. En el cas de l'Administració local, inclou el col·lectiu de bombers que en depenen.</t>
+  </si>
+  <si>
+    <t>Col·lectiu integrat pel personal sanitari –mèdic, d'infermeria, tècnic especialista en anàlisis clíniques, radiodiagnòstic, etc., així com els sanitaris locals– que presta serveis en centres de salut públics.</t>
+  </si>
+  <si>
+    <t>Professionals que fan tasques de custòdia, control i vigilància de persones i béns, i que possibiliten el funcionament i l'ordre dels centres i institucions penitenciàries en totes les seves modalitats.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +339,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{1E3D4D53-56EF-457D-872B-BE7C3BEBB371}" name="Codi" dataDxfId="2"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="1"/>
@@ -603,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -620,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -636,112 +645,123 @@
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -765,9 +785,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a50253f552cd15765e58fb5d1e43959a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8405c2c6377cc88ff03d0ac4a3d3549" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -781,6 +802,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -828,6 +851,36 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -957,13 +1010,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3284430C-BBBF-444F-AD0E-1556D87A2A4C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F15C7D-89F1-489A-8BAC-55B37361B573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
